--- a/outs/Genealogy_out.xlsx
+++ b/outs/Genealogy_out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,246 +434,244 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>creator</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>creator</t>
+          <t>source</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>publisher</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>contributor</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>contributor</t>
+          <t>language</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>rights</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>rights</t>
+          <t>relation</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>relation</t>
+          <t>format</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>identifier</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>identifier</t>
+          <t>coverage</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>coverage</t>
+          <t>zotero_genre</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>zotero_genre</t>
+          <t>zotero_distributor</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>zotero_distributor</t>
+          <t>zotero_director</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>zotero_director</t>
+          <t>z_performer</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>z_performer</t>
+          <t>zotero_episode_number</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>zotero_episode_number</t>
+          <t>zotero_language</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>zotero_language</t>
+          <t>zotero_network</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>zotero_network</t>
+          <t>zotero_audio_recording_format</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>zotero_audio_recording_format</t>
+          <t>zotero_label</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>zotero_label</t>
+          <t>zotero_running_time</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>zotero_running_time</t>
+          <t>zotero_num_pages</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>zotero_num_pages</t>
+          <t>zotero_place</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>zotero_place</t>
+          <t>zotero_publisher</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>zotero_publisher</t>
+          <t>zotero_issn</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>zotero_issn</t>
+          <t>zotero_isbn</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>zotero_isbn</t>
+          <t>zotero_issue</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>zotero_issue</t>
+          <t>zotero_publication_title</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>zotero_publication_title</t>
+          <t>z_url</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>z_url</t>
+          <t>zotero_volume</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>zotero_volume</t>
+          <t>zotero_short_title</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>zotero_short_title</t>
+          <t>z_ref</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>z_ref</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>files</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>files</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>collection</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>72</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Franco Marriages from Goffstown, New Hampshire: 1893-1992</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Franco Marriages from Goffstown, New Hampshire: 1893-1992</t>
+          <t>One hundred years of Catholic marriages from the Goffstown, New Hampshire, region. Includes marriages from St. Lawrence and St. Edmond parishes.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>One hundred years of Catholic marriages from the Goffstown, New Hampshire, region. Includes marriages from St. Lawrence and St. Edmond parishes.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Boudreau, Arthur;Perrault, Anne-Marie;American-Canadian Genealogical Society</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
+      <c r="F2" t="n">
         <v>2000</v>
       </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/53813496"&gt;53813496&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/53813496"&gt;53813496&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
           <t>1893-1992, Goffstown, New Hampshire</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -683,89 +681,86 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
+      <c r="Y2" t="n">
         <v>276</v>
       </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Manchester, New Hampshire</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Manchester, New Hampshire</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
           <t>American-Canadian Genealogical Society</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>http://www.acgs.org</t>
-        </is>
-      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.acgs.org"&gt;http://www.acgs.org&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Community: Customs and Social Life;Family;Genealogy;Goffstown NH;Manchester NH;Religion</t>
+        </is>
+      </c>
       <c r="AM2" t="inlineStr">
-        <is>
-          <t>Community: Customs and Social Life;Family;Genealogy;Goffstown NH;Manchester NH;Religion</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>167</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>An Elaborate History and Genealogy of the Ballous in America</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An Elaborate History and Genealogy of the Ballous in America</t>
+          <t>Subtitled: "Carefully Compiled and Edited by Adin Ballou; with Numerous Artistic Illustrations." Massive family history of the Ballou family of Rhode Island. Written at the end of the 19th century.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Subtitled: "Carefully Compiled and Edited by Adin Ballou; with Numerous Artistic Illustrations." Massive family history of the Ballou family of Rhode Island. Written at the end of the 19th century.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>Ballou, Adin</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="F3" t="n">
         <v>1888</v>
       </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Genealogy</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Genealogy</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/44956605"&gt;44956605&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/44956605"&gt;44956605&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
           <t>1650-1888, Rhode Island</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -775,84 +770,81 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="Y3" t="n">
         <v>1323</v>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Providence, Rhode Island</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Providence, Rhode Island</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
           <t>Press of E.L. Freeman &amp; Son</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>An Elaborate History of the Ballous in America @ Google Books (full text available)</t>
-        </is>
-      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=csc6AAAAMAAJ&amp;amp;printsec=frontcover&amp;amp;dq=ballou,+adin%3B+an+elaborate+history&amp;amp;hl=en&amp;amp;ei=U2JETOPWGsG88gaire2bDw&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CCgQ6AEwAA#v=onepage&amp;amp;q&amp;amp;f=false"&gt;An Elaborate History of the Ballous in America @ Google Books&lt;/a&gt; (full text available)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Family;Genealogy;Personal History: Biography and Oral History;Providence RI;Rhode Island</t>
+        </is>
+      </c>
       <c r="AM3" t="inlineStr">
-        <is>
-          <t>Family;Genealogy;Personal History: Biography and Oral History;Providence RI;Rhode Island</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>168</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Beginning Franco-American Genealogy</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beginning Franco-American Genealogy</t>
+          <t>First edition published in 1986. A guide to conducting one's own genealogy, with resources appropriate for those with Franco American and Canadian French ancestry.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>First edition published in 1986. A guide to conducting one's own genealogy, with resources appropriate for those with Franco American and Canadian French ancestry.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Boudreau, Dennis M.</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+      <c r="F4" t="n">
         <v>1993</v>
       </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Genealogy</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Genealogy</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/33086650"&gt;33086650&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -863,89 +855,86 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
+      <c r="Y4" t="n">
         <v>75</v>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Pawtucket, Rhode Island</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Pawtucket, Rhode Island</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
           <t>American French Genealogical Society</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>Beginning Franco-American Genealogy @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=0P4_OwAACAAJ&amp;amp;dq=beginning+franco-american+genealogy&amp;amp;hl=en&amp;amp;ei=1kJLTOmDLsP-8Aaeut0z&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CDIQ6AEwAA"&gt;Beginning Franco-American Genealogy @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Family;Genealogy;Rhode Island</t>
+        </is>
+      </c>
       <c r="AM4" t="inlineStr">
-        <is>
-          <t>Family;Genealogy;Rhode Island</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>169</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>French and Native North American Marriages, 1600-1800</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>French and Native North American Marriages, 1600-1800</t>
+          <t>List of French (Canadian) and Native American Marriages from eastern North America. Respective sources are listed for each documented marriage.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>List of French (Canadian) and Native American Marriages from eastern North America. Respective sources are listed for each documented marriage.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Bunnell, Paul</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
+      <c r="F5" t="n">
         <v>2004</v>
       </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Genealogy</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Genealogy</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/58017168"&gt;58017168&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/58017168"&gt;58017168&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
           <t>1600-1800, Canada, United States</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -955,88 +944,85 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
+      <c r="Y5" t="n">
         <v>161</v>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Westminster, Maryland</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Westminster, Maryland</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
           <t>Heritage Books</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>9.78079E+12</t>
         </is>
       </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>http://heritagebooks.com/mm5/merchant.mvc?Screen=PROD&amp;Store_Code=HBI&amp;Product_Code=B2595&amp;Category_Code=   French and Native North American Marriages @ Google Books (limited preview)</t>
-        </is>
-      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://heritagebooks.com/mm5/merchant.mvc?Screen=PROD&amp;amp;Store_Code=HBI&amp;amp;Product_Code=B2595&amp;amp;Category_Code="&gt;http://heritagebooks.com/mm5/merchant.mvc?Screen=PROD&amp;amp;Store_Code=HBI&amp;amp;Product_Code=B2595&amp;amp;Category_Code=&lt;/a&gt; &lt;br/&gt; &lt;br/&gt; &lt;a href="http://books.google.com/books?id=raLuLe7M2TcC&amp;amp;printsec=frontcover&amp;amp;dq=bunnell,+french+and+native+north+american+marriages&amp;amp;source=bl&amp;amp;ots=v0XznOwOS7&amp;amp;sig=Ye14YHTeB_vRHkdtVI2PrvEk9W0&amp;amp;hl=en&amp;amp;ei=UbEjTMzvCoO88ga55KC5BQ&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CBUQ6AEwAA#v=onepage&amp;amp;q&amp;amp;f=false"&gt;French and Native North American Marriages @ Google Books&lt;/a&gt; (limited preview)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Acadians;Canada;Ethnicity and Collective Identity;Genealogy;Native Americans;New England;United States</t>
+        </is>
+      </c>
       <c r="AM5" t="inlineStr">
-        <is>
-          <t>Acadians;Canada;Ethnicity and Collective Identity;Genealogy;Native Americans;New England;United States</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>170</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Histoire de ma famille</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Histoire de ma famille</t>
+          <t>A blank, illustrated text and family tree (with some commentary) to be filled-in with one's own genealogy.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A blank, illustrated text and family tree (with some commentary) to be filled-in with one's own genealogy.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>Campagna, Dominique</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>1960</v>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Book</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/3271013"&gt;3271013&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -1047,89 +1033,86 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
+      <c r="Y6" t="n">
         <v>84</v>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Cap-Rouge, Québec</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Cap-Rouge, Québec</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
           <t>Self-published</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>Histoire de ma famille @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=TicFHQAACAAJ&amp;amp;dq=%22campagna%22%3B+histoire+de+ma+famille&amp;amp;hl=en&amp;amp;ei=rBFOTIvfJoH_8AaEhJX8Cw&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CCgQ6AEwAA"&gt;Histoire de ma famille @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Education;Genealogy;Youth</t>
+        </is>
+      </c>
       <c r="AM6" t="inlineStr">
-        <is>
-          <t>Education;Genealogy;Youth</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>171</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>The First French Canadians: Pioneers in the St. Lawrence Valley</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The First French Canadians: Pioneers in the St. Lawrence Valley</t>
+          <t>From University of Delaware Press: "This book is the culmination of an enormous project aimed at the identification of the original French migrants to Québec and their descendants in the form of a computerized population register."</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>From University of Delaware Press: "This book is the culmination of an enormous project aimed at the identification of the original French migrants to Québec and their descendants in the form of a computerized population register."</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>Charbonneau, Hubert;Desjardins, Bertrand;Guillemette, André;Landry, Yves;Légaré, Jacques;Nault, Francois</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="F7" t="n">
         <v>1993</v>
       </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Genealogy</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Genealogy</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/27108728"&gt;27108728&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/27108728"&gt;27108728&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
           <t>1600s, France, Québec</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -1139,93 +1122,90 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
+      <c r="Y7" t="n">
         <v>252</v>
       </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Cranbury, New Jersey</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Cranbury, New Jersey</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
           <t>University of Delaware Press</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>9.78087E+12</t>
         </is>
       </c>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>http://www2.lib.udel.edu/udpress/ftitles.htm#0-87413-454-4   The First French Canadians @ Google Books (limited preview available)</t>
-        </is>
-      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www2.lib.udel.edu/udpress/ftitles.htm#0-87413-454-4"&gt;http://www2.lib.udel.edu/udpress/ftitles.htm#0-87413-454-4&lt;/a&gt; &lt;br/&gt; &lt;br/&gt; &lt;a href="http://www2.lib.udel.edu/udpress/ftitles.htm#0-87413-454-4"&gt;The First French Canadians @ Google Books&lt;/a&gt; (limited preview available)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Community: Customs and Social Life;Demography;Emigration and Immigration;Ethnicity and Collective Identity;France;Genealogy;Geography;Government and Politics;Montréal QC;Québec;St. Lawrence River Valley</t>
+        </is>
+      </c>
       <c r="AM7" t="inlineStr">
-        <is>
-          <t>Community: Customs and Social Life;Demography;Emigration and Immigration;Ethnicity and Collective Identity;France;Genealogy;Geography;Government and Politics;Montréal QC;Québec;St. Lawrence River Valley</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>172</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Marriages of St. Joseph's Catholic Church, Old Town, Maine (1860-1960): Including 1836-1892 Franco-American marriages recorded in the civil registers of Bangor, Bradley, Brewer, Old Town, and Orono</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marriages of St. Joseph's Catholic Church, Old Town, Maine (1860-1960): Including 1836-1892 Franco-American marriages recorded in the civil registers of Bangor, Bradley, Brewer, Old Town, and Orono</t>
+          <t>A list of marriages from 1836 to 1892, a list of priests, marriages, and marriage extracts from 1862 to 1960, a necrology from 1880-1946, a list of Anglicized French surnames in the Old Town area, and a list of the earliest French-Canadian families in Old Town.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A list of marriages from 1836 to 1892, a list of priests, marriages, and marriage extracts from 1862 to 1960, a necrology from 1880-1946, a list of Anglicized French surnames in the Old Town area, and a list of the earliest French-Canadian families in Old Town.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>Chenard, Robert</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
+      <c r="F8" t="n">
         <v>1993</v>
       </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Genealogy</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Genealogy</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/28773463"&gt;28773463&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/28773463"&gt;28773463&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
           <t>1836-1960, Bangor, Bradley, Brewer, Old Town, Orono, Maine</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1235,89 +1215,86 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
+      <c r="Y8" t="n">
         <v>308</v>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Waterville, Maine</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Waterville, Maine</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
           <t>Self-published</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>Marriages of St. Joseph's Catholic Church, Old Town, Maine @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=mmelHAAACAAJ&amp;amp;dq=chenard,+marriages+of+st.+joseph%27s+catholic+church,+old+town,+me&amp;amp;hl=en&amp;amp;ei=FU8iTKuEBsL-8Ab4hcydDg&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CDAQ6AEwAA"&gt;Marriages of St. Joseph's Catholic Church, Old Town, Maine @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>Acculturation and Assimilation;Bangor ME;Bradley ME;Brewer ME;Genealogy;Language and Linguistics;Old Town ME;Orono ME;Religion</t>
+        </is>
+      </c>
       <c r="AM8" t="inlineStr">
-        <is>
-          <t>Acculturation and Assimilation;Bangor ME;Bradley ME;Brewer ME;Genealogy;Language and Linguistics;Old Town ME;Orono ME;Religion</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>173</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Mariages de Sainte-Rosaire de Rochester, NH, 1883-1976</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mariages de Sainte-Rosaire de Rochester, NH, 1883-1976</t>
+          <t>Un répertoire (des noms familles) des mariages performé  dans la paroisse catholique de Sainte-Rosaire de Rochester, New Hampshire. Un de beaucoup de livres généalogiques franco-américains écrits par Croteau.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Un répertoire (des noms familles) des mariages performé  dans la paroisse catholique de Sainte-Rosaire de Rochester, New Hampshire. Un de beaucoup de livres généalogiques franco-américains écrits par Croteau.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Croteau, Fr. Fernand</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
+      <c r="F9" t="n">
         <v>1977</v>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Genealogy</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Genealogy</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/402485530"&gt;402485530&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/402485530"&gt;402485530&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
           <t>1883-1976, Rochester, New Hampshire</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1327,81 +1304,78 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
+      <c r="Y9" t="n">
         <v>155</v>
       </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr">
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>Self-published</t>
         </is>
       </c>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>http://www.acgs.org/research/online-catalog.htmlMariages de Sainte Rosaire de Rochester... @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.acgs.org/research/online-catalog.html"&gt;http://www.acgs.org/research/online-catalog.html&lt;/a&gt;&lt;br/&gt;&lt;br/&gt;&lt;a href="http://books.google.com/books?id=3Iw0QwAACAAJ&amp;amp;dq=Mariages+de+Sainte-Rosaire+de+Rochester,+NH,+1883-1976&amp;amp;hl=en&amp;amp;ei=1FRlTOfvNMP98AbwmuHMCA&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CCsQ6AEwAA"&gt;Mariages de Sainte Rosaire de Rochester... @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Family;Genealogy;Religion;Rochester NH</t>
+        </is>
+      </c>
       <c r="AM9" t="inlineStr">
-        <is>
-          <t>Family;Genealogy;Religion;Rochester NH</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>174</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Madawaska, Maine: Family Reunion Trees</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Madawaska, Maine: Family Reunion Trees</t>
+          <t>A chronicling of the living monuments planted in honor of local families in Madawaska, Maine, during the town's annual Acadian Festival and Family Reunion celebrations. Beginning in 1980, a tree was planted and a stone engraved each year in commemoration of the persistence of a different Acadian or French-Canadian family descended from Madawaska's original settlers.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A chronicling of the living monuments planted in honor of local families in Madawaska, Maine, during the town's annual Acadian Festival and Family Reunion celebrations. Beginning in 1980, a tree was planted and a stone engraved each year in commemoration of the persistence of a different Acadian or French-Canadian family descended from Madawaska's original settlers.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>DeFarges, Rachelle Chasse;Chasse, E. David;Chasse, Andrew W.;Chasse, Geraldine</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
+      <c r="F10" t="n">
         <v>2003</v>
       </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Genealogy</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>1980-2003, Madawaska, Maine</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1411,89 +1385,86 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
+      <c r="Y10" t="n">
         <v>68</v>
       </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Madawaska, Maine</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Madawaska, Maine</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
           <t>Madawaska Historical Society</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>http://www.madawaskahistorical.org/</t>
-        </is>
-      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.madawaskahistorical.org/"&gt;http://www.madawaskahistorical.org/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Acadians;Community: Customs and Social Life;Family;Genealogy;Madawaska ME;New Brunswick;Nova Scotia;Québec</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr">
-        <is>
-          <t>Acadians;Community: Customs and Social Life;Family;Genealogy;Madawaska ME;New Brunswick;Nova Scotia;Québec</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>175</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>The French Canadians, 1600-1900: An Alphabetized Directory of the People, Places and Vital Dates</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The French Canadians, 1600-1900: An Alphabetized Directory of the People, Places and Vital Dates</t>
+          <t>Genealogical directory of French-Canadian names and places useful for Franco-American family, genealogical, or historical research as far back as the 17th century.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Genealogical directory of French-Canadian names and places useful for Franco-American family, genealogical, or historical research as far back as the 17th century.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Elliot, Noel Montgomery</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
+      <c r="F11" t="n">
         <v>1992</v>
       </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Genealogy</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Genealogy</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/25538822"&gt;25538822&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/25538822"&gt;25538822&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
           <t>1600-1900, Canada, United States</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1504,90 +1475,87 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Toronto, Ontario</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Toronto, Ontario</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
           <t>Genealogical Research Library</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>9.78092E+12</t>
         </is>
       </c>
+      <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>The French Canadians, 1600-1900 @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=1LKOPgAACAAJ&amp;amp;dq=the+french+canadians,+1600-1900&amp;amp;hl=en&amp;amp;ei=KSsBTaiYBIW0lQeX0Zm-CA&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=2&amp;amp;ved=0CCwQ6AEwAQ"&gt;The French Canadians, 1600-1900 @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Canada;Genealogy;Geography;New Brunswick;Ontario;Québec</t>
+        </is>
+      </c>
       <c r="AM11" t="inlineStr">
-        <is>
-          <t>Canada;Genealogy;Geography;New Brunswick;Ontario;Québec</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>176</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Genealogist's Handbook for Upper Saint John Valley Research</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Genealogist's Handbook for Upper Saint John Valley Research</t>
+          <t>A resource guide and short bibliography for budding genealogists. Includes a brief historical overview of emigration to the St. John Valley region in the context of the Acadian expulsion (1755), the American Revolution (1776), and the relocation of British loyalists following the Treaty of Paris (1783). From the text: "The focus of this guide is on the individuals who settled in the Madawaska Settlement beginning with the blended Acadian/French-Canadian families who moved there in 1865."</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A resource guide and short bibliography for budding genealogists. Includes a brief historical overview of emigration to the St. John Valley region in the context of the Acadian expulsion (1755), the American Revolution (1776), and the relocation of British loyalists following the Treaty of Paris (1783). From the text: "The focus of this guide is on the individuals who settled in the Madawaska Settlement beginning with the blended Acadian/French-Canadian families who moved there in 1865."</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>Findlen, George</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
+      <c r="F12" t="n">
         <v>2003</v>
       </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Genealogy</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Genealogy</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/52871722"&gt;52871722&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/52871722"&gt;52871722&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
           <t>1755-2000, St. John River Valley, Maine</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -1597,88 +1565,85 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
+      <c r="Y12" t="n">
         <v>81</v>
       </c>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr">
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr">
         <is>
           <t>Genealogical Publishing Company</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr">
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr">
         <is>
           <t>9.78081E+12</t>
         </is>
       </c>
+      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>http://www.upperstjohn.com   Genealogist's Handbook for Upper Saint John Valley Research @ Google Books (limited preview available)</t>
-        </is>
-      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.upperstjohn.com"&gt;http://www.upperstjohn.com&lt;/a&gt; &lt;br/&gt; &lt;br/&gt; &lt;a href="http://books.google.com/books?id=uxMlcQZ3gTAC&amp;amp;printsec=frontcover&amp;amp;dq=findlen%3B+genealogist%27s+handbook&amp;amp;hl=en&amp;amp;ei=HmwiTICSJML68AaBg6zLBQ&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CDEQ6AEwAA#v=onepage&amp;amp;q&amp;amp;f=false"&gt;Genealogist's Handbook for Upper Saint John Valley Research @ Google Books&lt;/a&gt; (limited preview available)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Allagash ME;Bibliography;Caswell ME;Cyr ME;Eagle Lake ME;Fort Kent ME;Frenchville ME;Genealogy;Grand Isle ME;Hamlin ME;Madawaska ME;New Canada ME;Sinclair ME;St. Agatha ME;St. Francis ME;St. John River Valley;Van Buren ME;Wallagrass ME</t>
+        </is>
+      </c>
       <c r="AM12" t="inlineStr">
-        <is>
-          <t>Allagash ME;Bibliography;Caswell ME;Cyr ME;Eagle Lake ME;Fort Kent ME;Frenchville ME;Genealogy;Grand Isle ME;Hamlin ME;Madawaska ME;New Canada ME;Sinclair ME;St. Agatha ME;St. Francis ME;St. John River Valley;Van Buren ME;Wallagrass ME</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>413</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>French Canadian Sources: A Guide for Genealogists</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>French Canadian Sources: A Guide for Genealogists</t>
+          <t>From Ancestry Publishing: "A six-year collaborative effort of members of the French Canadian/Acadian Genealogical Society, this book provides detailed explanations about the genealogical sources available to those seeking their French-Canadian ancestors."</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>From Ancestry Publishing: "A six-year collaborative effort of members of the French Canadian/Acadian Genealogical Society, this book provides detailed explanations about the genealogical sources available to those seeking their French-Canadian ancestors."</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>Geyh, Patricia Keeney;Soltis Banachowski, Joyce;Boyea, Linda;Sarasin Ustine, Patricia;Holt Bourbonais, Marilyn;Ploenske Labelle, Beverly</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Ancestry Publishing</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="F13" t="n">
         <v>2002</v>
       </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Book</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/49699352"&gt;49699352&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1689,88 +1654,85 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
+      <c r="Y13" t="n">
         <v>329</v>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>Orem, Utah</t>
         </is>
       </c>
+      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>9.78193E+12</t>
         </is>
       </c>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>French Canadian Sources... @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=svJKKvIWfUcC&amp;amp;printsec=frontcover#v=onepage&amp;amp;q&amp;amp;f=false"&gt;French Canadian Sources... @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Acadians;Brunswick ME;Farming and Agriculture;Forestry;France;Genealogy;La Beauce QC;Montréal QC;Nova Scotia;Ottawa ON;Pierre SD;Prince Edward Island;Québec;Toronto ON</t>
+        </is>
+      </c>
       <c r="AM13" t="inlineStr">
-        <is>
-          <t>Acadians;Brunswick ME;Farming and Agriculture;Forestry;France;Genealogy;La Beauce QC;Montréal QC;Nova Scotia;Ottawa ON;Pierre SD;Prince Edward Island;Québec;Toronto ON</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>415</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>The Necrology of St. Peter and Paul's Cemetery, Lewiston, Maine</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The Necrology of St. Peter and Paul's Cemetery, Lewiston, Maine</t>
+          <t>List of persons interred at St. Peter and Paul's Cemetery, Lewiston, Maine. Volumes 1 and 2 have names of persons interred between 1870 and 1976. Volume 3 contains names of those interred between 1977 and 1992.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>List of persons interred at St. Peter and Paul's Cemetery, Lewiston, Maine. Volumes 1 and 2 have names of persons interred between 1870 and 1976. Volume 3 contains names of those interred between 1977 and 1992.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>Labonté, Youville</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Self-published</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="F14" t="n">
         <v>1977</v>
       </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Book</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/4808338"&gt;4808338&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1782,81 +1744,78 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>Auburn, Maine</t>
         </is>
       </c>
+      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>The Necrology of St. Peter and Paul's Cemetery...@ Google Books</t>
-        </is>
-      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=X7cRHAAACAAJ&amp;amp;dq=%22necrology+of+st.+peter%22%3B+labonte&amp;amp;hl=en&amp;amp;ei=wegkTNLRA4L68Abv3fy9Dw&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CDUQ6AEwAA"&gt;The Necrology of St. Peter and Paul's Cemetery...@ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Auburn ME;Death and Disaster;Genealogy;Lewiston ME;Religion</t>
+        </is>
+      </c>
       <c r="AM14" t="inlineStr">
-        <is>
-          <t>Auburn ME;Death and Disaster;Genealogy;Lewiston ME;Religion</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>416</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>St. Jean-Baptiste, Lowell, MA, 1869-1910</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>St. Jean-Baptiste, Lowell, MA, 1869-1910</t>
+          <t>Marriage index of all persons wedded in St. Jean-Baptiste Roman Catholic Church, Lowell, Massachusetts, in the period from 1869 to 1910. The text includes over 1,600 marriages. This parish was terminated on June 30, 1993.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Marriage index of all persons wedded in St. Jean-Baptiste Roman Catholic Church, Lowell, Massachusetts, in the period from 1869 to 1910. The text includes over 1,600 marriages. This parish was terminated on June 30, 1993.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>Labonté, Youville</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Self-published</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="F15" t="n">
         <v>1995</v>
       </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Book</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/32286274"&gt;32286274&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1867,84 +1826,81 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
+      <c r="Y15" t="n">
         <v>146</v>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>Auburn, Maine</t>
         </is>
       </c>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>http://ecommunity.uml.edu/francolowellma/baptiste.htm   St. Jean-Baptiste, Lowell, MA...@ Google Books</t>
-        </is>
-      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://ecommunity.uml.edu/francolowellma/baptiste.htm"&gt;http://ecommunity.uml.edu/francolowellma/baptiste.htm&lt;/a&gt; &lt;br/&gt; &lt;br/&gt; &lt;a href="http://books.google.com/books?id=-YZvGwAACAAJ&amp;amp;dq=labonte%3B+st.+jean-baptiste+lowell&amp;amp;hl=en&amp;amp;ei=PVcjTOLuLsT48AaMxtSpBQ&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CCgQ6AEwAA"&gt;St. Jean-Baptiste, Lowell, MA...@ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>Family;Genealogy;Lowell MA;Religion</t>
+        </is>
+      </c>
       <c r="AM15" t="inlineStr">
-        <is>
-          <t>Family;Genealogy;Lowell MA;Religion</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>418</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>The Acadian Miracle</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Acadian Miracle</t>
+          <t>Book on Acadian genealogy written by a former Louisiana state senator. Primarily a draft of his family tree.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Book on Acadian genealogy written by a former Louisiana state senator. Primarily a draft of his family tree.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>LeBlanc, Dudley J.</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Evangeline Publishing Company</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="F16" t="n">
         <v>1966</v>
       </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Book</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/1829658"&gt;1829658&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1955,89 +1911,86 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="n">
+      <c r="Y16" t="n">
         <v>419</v>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>Lafayette, Louisiana</t>
         </is>
       </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>The Acadian Miracle @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=FxiVGQAACAAJ&amp;amp;dq=the+acadian+miracle&amp;amp;cd=1"&gt;The Acadian Miracle @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>Acadians;Death and Disaster;Genealogy;Louisiana;Nova Scotia;United States</t>
+        </is>
+      </c>
       <c r="AM16" t="inlineStr">
-        <is>
-          <t>Acadians;Death and Disaster;Genealogy;Louisiana;Nova Scotia;United States</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>419</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Franco-American Marriages of New Bedford, Massachusetts, 1865-1920</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Franco-American Marriages of New Bedford, Massachusetts, 1865-1920</t>
+          <t>55 year marriage repertory from Franco-American parishes of New Bedford, Massachusetts. Updated version of Albert Ledoux's original 1977 edition.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>55 year marriage repertory from Franco-American parishes of New Bedford, Massachusetts. Updated version of Albert Ledoux's original 1977 edition.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>Ledoux, Albert;Letourneau, Armand;Letourneau, Mary</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>American-French Genealogical Society</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="F17" t="n">
         <v>1986</v>
       </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/18609884"&gt;18609884&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/18609884"&gt;18609884&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
           <t>1865-1920, New Bedford, Massachusetts</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -2047,84 +2000,81 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="n">
+      <c r="Y17" t="n">
         <v>478</v>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>Pawtucket, Rhode Island</t>
         </is>
       </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>Franco-American Marriages of New Bedford...@ Google Books</t>
-        </is>
-      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=KKwVAgAACAAJ&amp;amp;dq=letourneau%3B+franco-american+marriages+of+new+bedford,+MA&amp;amp;hl=en&amp;amp;ei=w25YTLXZLtD_nQfC3bXICQ&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CDQQ6AEwAA"&gt;Franco-American Marriages of New Bedford...@ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Genealogy;New Bedford MA;Religion</t>
+        </is>
+      </c>
       <c r="AM17" t="inlineStr">
-        <is>
-          <t>Genealogy;New Bedford MA;Religion</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>420</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Reference and Guide Book for the Genealogist: Prepared Especially for the Franco-Americans</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Reference and Guide Book for the Genealogist: Prepared Especially for the Franco-Americans</t>
+          <t>From the American French Genealogical Society: "AFGS is pleased to offer you this very helpful resource book as a reference and guide book for the genealogist. It is an excellent book for both beginner and experienced researchers in the quest for genealogical information. Mr. Letourneau is a founding member of AFGS and this book offers you the benefit of his many years of research experience. Mr. Letourneau has done a complete review of how to read the various repertoires that you encounter, including Jette, PRDH, and Drouin. He has lists of counties in New England and the province of Quebec, abbreviations that you may encounter, Catholic Parishes of the province of Quebec and New England listed by name and city.  Latin terms and what they mean, and lists of names written in Latin, French and English to help you when you are looking through primary source materials. He has included sections on various types of charts, on Genealogy Societies in the U.S., Canada and France, family associations and repositories and archives in the United States....In short, he has made a handbook that is sure to offer something for everyone who is researching a family name."</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>From the American French Genealogical Society: "AFGS is pleased to offer you this very helpful resource book as a reference and guide book for the genealogist. It is an excellent book for both beginner and experienced researchers in the quest for genealogical information. Mr. Letourneau is a founding member of AFGS and this book offers you the benefit of his many years of research experience. Mr. Letourneau has done a complete review of how to read the various repertoires that you encounter, including Jette, PRDH, and Drouin. He has lists of counties in New England and the province of Quebec, abbreviations that you may encounter, Catholic Parishes of the province of Quebec and New England listed by name and city.  Latin terms and what they mean, and lists of names written in Latin, French and English to help you when you are looking through primary source materials. He has included sections on various types of charts, on Genealogy Societies in the U.S., Canada and France, family associations and repositories and archives in the United States....In short, he has made a handbook that is sure to offer something for everyone who is researching a family name."</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>Letourneau, Armand;Burkhart, Janice;Boudreau, Dennis;Pommeville, William</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>American-French Genealogical Society</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="F18" t="n">
         <v>2003</v>
       </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Book</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/52628325"&gt;52628325&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -2135,88 +2085,85 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="n">
+      <c r="Y18" t="n">
         <v>378</v>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>Woonsocket, Rhode Island</t>
         </is>
       </c>
+      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>9.78193E+12</t>
         </is>
       </c>
+      <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>http://www.afgs.org/refguide.html   Reference and Guide Book for the Genealogist...@ Google Books</t>
-        </is>
-      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.afgs.org/refguide.html"&gt;http://www.afgs.org/refguide.html&lt;/a&gt; &lt;br/&gt; &lt;br/&gt; &lt;a href="http://books.google.com/books?id=cNdzPQAACAAJ&amp;amp;dq=reference+and+guide+book+for+the+genealogist&amp;amp;hl=en&amp;amp;ei=PHGsTOLMMoyssAOM9NSFBA&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;sqi=2&amp;amp;ved=0CDUQ6AEwAA"&gt;Reference and Guide Book for the Genealogist...@ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Demography;France;Genealogy;Geography;Language and Linguistics;New Brunswick;New England;New York;Newfoundland;Nova Scotia;Ontario;Québec;Religion</t>
+        </is>
+      </c>
       <c r="AM18" t="inlineStr">
-        <is>
-          <t>Demography;France;Genealogy;Geography;Language and Linguistics;New Brunswick;New England;New York;Newfoundland;Nova Scotia;Ontario;Québec;Religion</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>421</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Souches et racines : une introduction aè la généalogie pour les jeunes Franco-Américains</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Souches et racines : une introduction aè la généalogie pour les jeunes Franco-Américains</t>
+          <t>Un guide généalogique conçu pour les jeunes franco-américain(e)s et canadien(ne)s francais. Avec des ressources d'étudier les arbres de famille dans la region de la Nouvelle-Angleterre.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Un guide généalogique conçu pour les jeunes franco-américain(e)s et canadien(ne)s francais. Avec des ressources d'étudier les arbres de famille dans la region de la Nouvelle-Angleterre.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>Olivier, Julien</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>National Materials Development Center</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="F19" t="n">
         <v>1981</v>
       </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Book</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/8528445"&gt;8528445&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -2227,283 +2174,274 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="n">
+      <c r="Y19" t="n">
         <v>175</v>
       </c>
+      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>Souches et racines...@ Google Books</t>
-        </is>
-      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=YZuWPAAACAAJ&amp;amp;dq=souches+et+racines&amp;amp;hl=en&amp;amp;ei=aAlOTN3tBIG88ga33IGaDA&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CCgQ6AEwAA"&gt;Souches et racines...@ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>Acadians;Boston MA;Genealogy;Lewiston ME;Nova Scotia;Youth</t>
+        </is>
+      </c>
       <c r="AM19" t="inlineStr">
-        <is>
-          <t>Acadians;Boston MA;Genealogy;Lewiston ME;Nova Scotia;Youth</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>784</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>L'Acadie de mes ancêtres: histoire et généalogie avec cartes et illustrations (Beloved Acadia of My Ancestors: History and Genealogy)</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Léger, Yvon</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Fleuve</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="F20" t="n">
         <v>1992</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Français (English translation available)</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Book</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>Français (English translation available)</t>
         </is>
       </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="n">
+      <c r="Y20" t="n">
         <v>409</v>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Montréal, Québec</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Montréal, Québec</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
           <t>Fleuve</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr">
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr">
         <is>
           <t>9.78289E+12</t>
         </is>
       </c>
+      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>http://www.acadian-roots.com/book-corner-three.html</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;http://www.acadian-roots.com/book-corner-three.html&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr">
         <is>
           <t>Beloved Acadia of my Ancestors</t>
         </is>
       </c>
+      <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>Acadians;Emigration and Immigration;Family;France;Genealogy;Louisiana;New Brunswick;Nova Scotia;Québec</t>
+        </is>
+      </c>
       <c r="AM20" t="inlineStr">
-        <is>
-          <t>Acadians;Emigration and Immigration;Family;France;Genealogy;Louisiana;New Brunswick;Nova Scotia;Québec</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>875</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Rivieres, chemins, et sentiers</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Chenard, Robert</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Le FAROG Forum</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="F21" t="n">
         <v>1991</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Book</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="n">
+      <c r="Y21" t="n">
         <v>38</v>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Waterville, Maine</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Waterville, Maine</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
           <t>Le FAROG Forum</t>
         </is>
       </c>
+      <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>http://www.royandboucher.com/genealogy/showsource.php?sourceID=S471&amp;tree=T0001</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;http://www.royandboucher.com/genealogy/showsource.php?sourceID=S471&amp;amp;tree=T0001&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr">
         <is>
           <t>Rivieres, chemins, et sentiers</t>
         </is>
       </c>
+      <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>Emigration and Immigration;Genealogy;Waterville ME</t>
+        </is>
+      </c>
       <c r="AM21" t="inlineStr">
-        <is>
-          <t>Emigration and Immigration;Genealogy;Waterville ME</t>
-        </is>
-      </c>
-      <c r="AN21" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>1307</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Proving the Parentage of John Bettis: Immigrant Ancestor of Bettis Families in Vermont</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Proving the Parentage of John Bettis: Immigrant Ancestor of Bettis Families in Vermont</t>
+          <t>Genealogical piece from the quarterly publication of the National Genealogical Society. Focuses on the Bettis, Perrin, and Vaillancourt families between the geographies of Canada and Vermont.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Genealogical piece from the quarterly publication of the National Genealogical Society. Focuses on the Bettis, Perrin, and Vaillancourt families between the geographies of Canada and Vermont.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t xml:space="preserve">Ouimette, David S. </t>
         </is>
       </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2010 September</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Journal Article</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Journal Article</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/1759226"&gt;1759226&lt;/a&gt;;&lt;a href="http://catalog.vermonthistory.org"&gt;929 N21 v. 98&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/1759226"&gt;1759226&lt;/a&gt;;&lt;a href="http://catalog.vermonthistory.org"&gt;929 N21 v. 98&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
           <t>21st century, Vermont</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -2516,98 +2454,95 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>0027-934X</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="n">
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="n">
         <v>3</v>
       </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>National Genealogical Society Quarterly</t>
+        </is>
+      </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>National Genealogical Society Quarterly</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>http://www.ngsgenealogy.org/cs/ngsq</t>
-        </is>
-      </c>
-      <c r="AH22" t="n">
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.ngsgenealogy.org/cs/ngsq"&gt;http://www.ngsgenealogy.org/cs/ngsq&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG22" t="n">
         <v>98</v>
       </c>
+      <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/00f7aadf9835563ef801496ff1d7cf3d.gif</t>
+        </is>
+      </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/00f7aadf9835563ef801496ff1d7cf3d.gif</t>
+          <t>Family;Genealogy;Québec;Vermont</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
-        <is>
-          <t>Family;Genealogy;Québec;Vermont</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>1308</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Bringing a Photograph to Life: The Story of Joseph L. Miner</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bringing a Photograph to Life: The Story of Joseph L. Miner</t>
+          <t>Article from the New England Historic Genealogical Society periodical. Genealogical research sparked from an interest in a picture displayed in the author's grandmother's Vermont home.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Article from the New England Historic Genealogical Society periodical. Genealogical research sparked from an interest in a picture displayed in the author's grandmother's Vermont home.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
           <t>Myrback, Margrit</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2010 Fall</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Journal Article</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Journal Article</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/517962020"&gt;517962020&lt;/a&gt;;&lt;a href="http://catalog.vermonthistory.org"&gt; 929.05 bN44a&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/517962020"&gt;517962020&lt;/a&gt;;&lt;a href="http://catalog.vermonthistory.org"&gt; 929.05 bN44a&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
           <t>20th and 21st centuries, Vermont</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -2620,100 +2555,97 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>2154-6533</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="n">
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="n">
         <v>4</v>
       </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>American Ancestors</t>
+        </is>
+      </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>American Ancestors</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>http://www.americanancestors.org/search.aspx?Re=myrback&amp;Run=1 http://www.americanancestors.org/PageDetail.aspx?recordId=137332038</t>
-        </is>
-      </c>
-      <c r="AH23" t="n">
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.americanancestors.org/search.aspx?Re=myrback&amp;amp;Run=1"&gt;http://www.americanancestors.org/search.aspx?Re=myrback&amp;amp;Run=1&lt;/a&gt;&lt;br/&gt;&lt;br/&gt; &lt;a href="http://www.americanancestors.org/PageDetail.aspx?recordId=137332038"&gt;http://www.americanancestors.org/PageDetail.aspx?recordId=137332038&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG23" t="n">
         <v>11</v>
       </c>
+      <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/9441e960c1f929c50aa13dc9374b4576.jpg</t>
+        </is>
+      </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/9441e960c1f929c50aa13dc9374b4576.jpg</t>
+          <t>Emigration and Immigration;Family;France;Genealogy;New England;Québec;Vergennes VT</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
-        <is>
-          <t>Emigration and Immigration;Family;France;Genealogy;New England;Québec;Vergennes VT</t>
-        </is>
-      </c>
-      <c r="AN23" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>1539</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Dictionnaire national des Canadiens français, 1608-1760</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dictionnaire national des Canadiens français, 1608-1760</t>
+          <t>Un livre qui contient des infos sur mariages et naissances canadiens français entre 1608 et 1760. Avec des surnoms. Un ressource important pour la généalogiste. Souvent dit "the red Drouin books."</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Un livre qui contient des infos sur mariages et naissances canadiens français entre 1608 et 1760. Avec des surnoms. Un ressource important pour la généalogiste. Souvent dit "the red Drouin books."</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
           <t>American French Genealogical Society</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>American French Genealogical Society</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="F24" t="n">
         <v>2003</v>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/53920272"&gt;53920272&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/53920272"&gt;53920272&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
           <t>1608-1760, Québec</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -2724,94 +2656,91 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>Woonsocket, Rhode Island</t>
         </is>
       </c>
+      <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>9.78193E+12</t>
         </is>
       </c>
+      <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>Dictionnaire national des Canadiens français sur Google Books  http://www.ancestry.com/learn/library/article.aspx?article=2269</t>
-        </is>
-      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=I6RtQgAACAAJ&amp;amp;dq=Dictionnaire+national+des+Canadiens+franc%CC%A7ais,+1608-1760.+2003&amp;amp;hl=en&amp;amp;ei=iJRaTaLvK4GC8gbDv6isDg&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=4&amp;amp;ved=0CDcQ6AEwAw"&gt;Dictionnaire national des Canadiens francÌ§ais sur Google Books&lt;/a&gt; &lt;br/&gt;&lt;br/&gt; &lt;a href="http://www.ancestry.com/learn/library/article.aspx?article=2269"&gt;http://www.ancestry.com/learn/library/article.aspx?article=2269&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Canada;Family;Genealogy;Québec;Religion;Woonsocket RI;Youth</t>
+        </is>
+      </c>
       <c r="AM24" t="inlineStr">
-        <is>
-          <t>Canada;Family;Genealogy;Québec;Religion;Woonsocket RI;Youth</t>
-        </is>
-      </c>
-      <c r="AN24" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>1549</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>The "Dit" Name : French-Canadian Surnames, Aliases, Adulterations, and Anglicizations</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The "Dit" Name : French-Canadian Surnames, Aliases, Adulterations, and Anglicizations</t>
+          <t>American exploration of the transition and development of French Canadian surnames in the United States, with a particular emphasis on those names now found in various forms in the New England states. The term "dit," translated as "called" or "a.k.a.," refers to the disconnect between one's spoken name and one's actual given name or family surname. Originally published in 1993 under the shortened title, "French-Canadian surnames, aliases, adulterations, and anglicizations."</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>American exploration of the transition and development of French Canadian surnames in the United States, with a particular emphasis on those names now found in various forms in the New England states. The term "dit," translated as "called" or "a.k.a.," refers to the disconnect between one's spoken name and one's actual given name or family surname. Originally published in 1993 under the shortened title, "French-Canadian surnames, aliases, adulterations, and anglicizations."</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>Quintin, Robert</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Quintin Publications</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="F25" t="n">
         <v>1998</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/40965450"&gt;40965450&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/40965450"&gt;40965450&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
           <t>20th century, New England</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
@@ -2821,97 +2750,94 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="n">
+      <c r="Y25" t="n">
         <v>171</v>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Pawtucket, Rhode Island</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Pawtucket, Rhode Island</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
           <t>Quintin Publications</t>
         </is>
       </c>
+      <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>The "Dit" Name... @ Quintin Publications  Robert Quintin @ Quintin Publications  The "Dit" Name... @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.quintinpublications.com/mm5m/merchant.mvc?Screen=PROD&amp;amp;Product_Code=09303&amp;amp;Store_Code=QP&amp;amp;search=the+%22dit%22+name&amp;amp;offset=&amp;amp;filter_cat=&amp;amp;PowerSearch_Begin_Only=&amp;amp;sort=&amp;amp;range_low=&amp;amp;range_high="&gt;The "Dit" Name... @ Quintin Publications&lt;/a&gt; &lt;br/&gt;&lt;br/&gt; &lt;a href="http://www.quintinpublications.com/category/RobertQuintinAuthors"&gt;Robert Quintin @ Quintin Publications&lt;/a&gt; &lt;br/&gt;&lt;br/&gt; &lt;a href="http://books.google.com/books?id=Kr38YQEACAAJ&amp;amp;dq=The+%22dit%22+name+:+French-Canadian+surnames,+aliases,+adulterations,+and+anglicizations&amp;amp;hl=en&amp;amp;ei=aEhdTcG0IIT7lwfv2KStCw&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CDEQ6AEwAA"&gt;The "Dit" Name... @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>Acculturation and Assimilation;Canada;Family;Genealogy;Language and Linguistics;New England;Québec</t>
+        </is>
+      </c>
       <c r="AM25" t="inlineStr">
-        <is>
-          <t>Acculturation and Assimilation;Canada;Family;Genealogy;Language and Linguistics;New England;Québec</t>
-        </is>
-      </c>
-      <c r="AN25" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>1550</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Our French Canadian Forefathers</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Our French Canadian Forefathers</t>
+          <t>Genealogical sketch of a number of French and French Canadian families. Contains information on the following family lines, in the following order: Pontonnier, Gadois, Martin, Besnard, Langlois, Gouin, Baudouin, Perche, Choret, Crevier, Rondeau, Guillet, Chateauneuf, Couture. The link below is to an online publication of the chapter dedicated to the Crevier family.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Genealogical sketch of a number of French and French Canadian families. Contains information on the following family lines, in the following order: Pontonnier, Gadois, Martin, Besnard, Langlois, Gouin, Baudouin, Perche, Choret, Crevier, Rondeau, Guillet, Chateauneuf, Couture. The link below is to an online publication of the chapter dedicated to the Crevier family.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>Rock, Lucille Fournier</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Self-published</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="F26" t="n">
         <v>1982</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/9381945"&gt;9381945&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/9381945"&gt;9381945&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
           <t>16th century - 20th century, Canada, France</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -2921,101 +2847,98 @@
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="n">
+      <c r="Y26" t="n">
         <v>164</v>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Woonsocket, Rhode Island</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Woonsocket, Rhode Island</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
           <t>Self-published</t>
         </is>
       </c>
+      <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>http://www.family.crevier.org/download/free/FrenchCanadianForefathers.pdf  Our French Canadian Forefathers @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.family.crevier.org/download/free/FrenchCanadianForefathers.pdf"&gt;http://www.family.crevier.org/download/free/FrenchCanadianForefathers.pdf&lt;/a&gt; &lt;br/&gt;&lt;br/&gt; &lt;a href="http://books.google.com/books?id=_JjcQgAACAAJ&amp;amp;dq=rock;+our+french+canadian+forefathers&amp;amp;hl=en&amp;amp;ei=L9ZaTb6IEcX_lgeJwMT4DA&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CDgQ6AEwAA"&gt;Our French Canadian Forefathers @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/892d2422d659f99ed872e0a844a32b98.JPG</t>
+        </is>
+      </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/892d2422d659f99ed872e0a844a32b98.JPG</t>
+          <t>Canada;Family;France;Genealogy;Québec</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
-        <is>
-          <t>Canada;Family;France;Genealogy;Québec</t>
-        </is>
-      </c>
-      <c r="AN26" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>1866</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Marriage records (1869-1889) : Precious Blood Church, Holyoke, Mass.</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Marriage records (1869-1889) : Precious Blood Church, Holyoke, Mass.</t>
+          <t>Collection of marriage records from Precious Blood Church - a Roman Catholic national parish in Holyoke, Massachusetts - between the years of 1869 and 1889. Where parish records are missing, substitutions are included from the records of the city of Holyoke. Introduction contains an index and cross-file of alphabetized surnames and, where relevant, the historical translations or transliterations of these names. Entries contain full name of spouse, age, place of birth, date of marriage, occupation, and names of parents. Includes a second, smaller section, with marriage records from between 1850 and 1881.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Collection of marriage records from Precious Blood Church - a Roman Catholic national parish in Holyoke, Massachusetts - between the years of 1869 and 1889. Where parish records are missing, substitutions are included from the records of the city of Holyoke. Introduction contains an index and cross-file of alphabetized surnames and, where relevant, the historical translations or transliterations of these names. Entries contain full name of spouse, age, place of birth, date of marriage, occupation, and names of parents. Includes a second, smaller section, with marriage records from between 1850 and 1881.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
           <t>Shane, Rita</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Self-published</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="F27" t="n">
         <v>1980</v>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/10548303"&gt;10548303&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/10548303"&gt;10548303&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
           <t>1850-1889; Holyoke, Massachusetts</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -3025,44 +2948,43 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="n">
+      <c r="Y27" t="n">
         <v>194</v>
       </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Springfield, Massachusetts</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Springfield, Massachusetts</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
           <t>Self-published</t>
         </is>
       </c>
+      <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>http://www.holyokemass.com/transcript/church/ch18.html</t>
-        </is>
-      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.holyokemass.com/transcript/church/ch18.html"&gt;http://www.holyokemass.com/transcript/church/ch18.html&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/6388bf426b3434ac2d7d81b793588942.jpg</t>
+        </is>
+      </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/6388bf426b3434ac2d7d81b793588942.jpg</t>
+          <t>Family;Genealogy;Holyoke MA;Religion</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
-        <is>
-          <t>Family;Genealogy;Holyoke MA;Religion</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr">
         <is>
           <t>Genealogy | Généalogie</t>
         </is>
